--- a/biology/Médecine/Muscle_crico-aryténoïdien_latéral/Muscle_crico-aryténoïdien_latéral.xlsx
+++ b/biology/Médecine/Muscle_crico-aryténoïdien_latéral/Muscle_crico-aryténoïdien_latéral.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Muscle_crico-aryt%C3%A9no%C3%AFdien_lat%C3%A9ral</t>
+          <t>Muscle_crico-aryténoïdien_latéral</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les muscles crico-aryténoïdiens latéraux (ou muscle crico-aryténoïdiens antérieurs)  sont de petits muscles pairs , épais et court, triangulaire à base antéro-inférieure intrinsèques du larynx qui s'étendent entre le cartilage cricoïde et le cartilage aryténoïde du larynx.
 Ils sont situés en dedans de la lame latérale du cartilage thyroïde.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Muscle_crico-aryt%C3%A9no%C3%AFdien_lat%C3%A9ral</t>
+          <t>Muscle_crico-aryténoïdien_latéral</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,12 +526,15 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Origine et insertion
-Ils débutent sur la partie postéro-latérale du bord supérieur de l’arc du cartilage cricoïde.
+          <t>Origine et insertion</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ils débutent sur la partie postéro-latérale du bord supérieur de l’arc du cartilage cricoïde.
 Ils se dirigent en arrière et en haut.
 Ils se terminent sur la face antéro-latérale du processus musculaire du cartilage aryténoïde.
-Innervation
-Ils sont innervés par le nerf laryngé inférieur issu du nerf vague (X).
 </t>
         </is>
       </c>
@@ -530,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Muscle_crico-aryt%C3%A9no%C3%AFdien_lat%C3%A9ral</t>
+          <t>Muscle_crico-aryténoïdien_latéral</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,10 +560,49 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Anatomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Innervation</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ils sont innervés par le nerf laryngé inférieur issu du nerf vague (X).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Muscle_crico-aryténoïdien_latéral</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Muscle_crico-aryt%C3%A9no%C3%AFdien_lat%C3%A9ral</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Fonction</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">En faisant tourner les cartilages aryténoïdes médialement, ces muscles rapprochent les cordes vocales et ferment ainsi la fente de la glotte, protégeant les voies respiratoires.
 Leur action est antagoniste à celle des muscles crico-aryténoïdien postérieurs.
